--- a/4. 교육/R 교육/2. 교육 참석자 명단/2023년 8월 북부지원 R교육 참석자 명단.xlsx
+++ b/4. 교육/R 교육/2. 교육 참석자 명단/2023년 8월 북부지원 R교육 참석자 명단.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Study\R 교육\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Study\4. 교육\R 교육\2. 교육 참석자 명단\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="24">
   <si>
     <t>성명</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -86,6 +86,34 @@
   </si>
   <si>
     <t>0번: 전부 가능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>임윤정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2번</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김지영</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4번, 5번</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오은주</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2번</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>손해준</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -426,10 +454,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -503,6 +531,38 @@
         <v>16</v>
       </c>
     </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" t="s">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/4. 교육/R 교육/2. 교육 참석자 명단/2023년 8월 북부지원 R교육 참석자 명단.xlsx
+++ b/4. 교육/R 교육/2. 교육 참석자 명단/2023년 8월 북부지원 R교육 참석자 명단.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="26">
   <si>
     <t>성명</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -114,6 +114,14 @@
   </si>
   <si>
     <t>손해준</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김재광</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5번</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -454,10 +462,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -563,6 +571,14 @@
         <v>20</v>
       </c>
     </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/4. 교육/R 교육/2. 교육 참석자 명단/2023년 8월 북부지원 R교육 참석자 명단.xlsx
+++ b/4. 교육/R 교육/2. 교육 참석자 명단/2023년 8월 북부지원 R교육 참석자 명단.xlsx
@@ -14,6 +14,9 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$B$13</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -24,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="31">
   <si>
     <t>성명</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -118,6 +121,26 @@
   </si>
   <si>
     <t>김재광</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5번</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>윤수현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>위효빈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4번</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정은희</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -161,12 +184,27 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -175,11 +213,17 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -462,10 +506,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -474,112 +518,141 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B11" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B12" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>23</v>
-      </c>
-      <c r="B10" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B13" s="1" t="s">
         <v>25</v>
       </c>
     </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
   </sheetData>
+  <autoFilter ref="A1:B13">
+    <sortState ref="A2:B13">
+      <sortCondition ref="B1:B13"/>
+    </sortState>
+  </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/4. 교육/R 교육/2. 교육 참석자 명단/2023년 8월 북부지원 R교육 참석자 명단.xlsx
+++ b/4. 교육/R 교육/2. 교육 참석자 명단/2023년 8월 북부지원 R교육 참석자 명단.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="35">
   <si>
     <t>성명</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -141,6 +141,22 @@
   </si>
   <si>
     <t>정은희</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5번</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유한조</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3번</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>임부건</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -184,7 +200,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -207,13 +223,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -224,6 +251,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -506,10 +536,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="A17" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -645,6 +675,22 @@
       </c>
       <c r="B14" s="3" t="s">
         <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/4. 교육/R 교육/2. 교육 참석자 명단/2023년 8월 북부지원 R교육 참석자 명단.xlsx
+++ b/4. 교육/R 교육/2. 교육 참석자 명단/2023년 8월 북부지원 R교육 참석자 명단.xlsx
@@ -15,7 +15,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$B$13</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$B$16</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -200,7 +200,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -223,24 +223,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -251,9 +240,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -538,8 +524,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A17" sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R10" sqref="R10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -560,10 +546,10 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>4</v>
@@ -571,10 +557,10 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>5</v>
@@ -582,10 +568,10 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>6</v>
@@ -593,10 +579,10 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>7</v>
@@ -604,10 +590,10 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>16</v>
@@ -615,26 +601,26 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>20</v>
+      <c r="A9" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
@@ -646,27 +632,27 @@
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>10</v>
+      <c r="A11" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
@@ -678,25 +664,25 @@
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>32</v>
+      <c r="A15" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>34</v>
+      <c r="A16" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B13">
-    <sortState ref="A2:B13">
-      <sortCondition ref="B1:B13"/>
+  <autoFilter ref="A1:B16">
+    <sortState ref="A2:B16">
+      <sortCondition ref="A1:A16"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
